--- a/StructureDefinition-us-core-medicationstatement.xlsx
+++ b/StructureDefinition-us-core-medicationstatement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="383">
   <si>
     <t>Property</t>
   </si>
@@ -160,6 +160,10 @@
 Status=Intended +NotTaken= F = Will be taking (not started) Status=Completed + NotTaken=F = Taken in past Status=In Error + NotTaken=N/A = In Error.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1688,13 +1692,13 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>37</v>
@@ -1705,10 +1709,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1719,7 +1723,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -1728,19 +1732,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1790,13 +1794,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -1819,10 +1823,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1833,7 +1837,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -1842,16 +1846,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1902,19 +1906,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -1931,10 +1935,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1945,28 +1949,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2016,19 +2020,19 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2045,10 +2049,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2059,7 +2063,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2071,16 +2075,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2106,13 +2110,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2130,19 +2134,19 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2159,21 +2163,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -2185,16 +2189,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2244,25 +2248,25 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>37</v>
@@ -2273,14 +2277,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2299,16 +2303,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2358,7 +2362,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -2376,7 +2380,7 @@
         <v>37</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>37</v>
@@ -2387,10 +2391,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2413,13 +2417,13 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2458,17 +2462,17 @@
         <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -2480,7 +2484,7 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -2497,13 +2501,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>37</v>
@@ -2513,7 +2517,7 @@
         <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>37</v>
@@ -2525,13 +2529,13 @@
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2582,7 +2586,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2591,16 +2595,16 @@
         <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>37</v>
@@ -2611,14 +2615,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2631,25 +2635,25 @@
         <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>37</v>
@@ -2698,7 +2702,7 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2710,13 +2714,13 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>37</v>
@@ -2727,10 +2731,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2750,19 +2754,19 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2812,7 +2816,7 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -2824,16 +2828,16 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>37</v>
@@ -2841,10 +2845,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2858,26 +2862,26 @@
         <v>39</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>37</v>
@@ -2926,7 +2930,7 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
@@ -2938,13 +2942,13 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>37</v>
@@ -2955,10 +2959,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2978,20 +2982,20 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>37</v>
@@ -3040,7 +3044,7 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
@@ -3052,13 +3056,13 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>37</v>
@@ -3069,10 +3073,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3080,31 +3084,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3130,11 +3134,11 @@
         <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>37</v>
@@ -3152,28 +3156,28 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
@@ -3181,10 +3185,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3207,16 +3211,16 @@
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3242,13 +3246,13 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
@@ -3266,7 +3270,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3278,13 +3282,13 @@
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>37</v>
@@ -3295,10 +3299,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3309,7 +3313,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>37</v>
@@ -3318,16 +3322,16 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3354,13 +3358,13 @@
         <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>37</v>
@@ -3378,28 +3382,28 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
@@ -3407,10 +3411,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3418,31 +3422,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3468,11 +3472,11 @@
         <v>37</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>37</v>
@@ -3490,28 +3494,28 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3519,10 +3523,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3530,28 +3534,28 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3602,39 +3606,39 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3645,7 +3649,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -3654,16 +3658,16 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3714,25 +3718,25 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>37</v>
@@ -3743,10 +3747,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3757,28 +3761,28 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3828,28 +3832,28 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -3857,10 +3861,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3871,25 +3875,25 @@
         <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3940,28 +3944,28 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -3969,10 +3973,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3983,10 +3987,10 @@
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>37</v>
@@ -3995,13 +3999,13 @@
         <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4052,28 +4056,28 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4081,10 +4085,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4107,16 +4111,16 @@
         <v>37</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4166,7 +4170,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -4178,13 +4182,13 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>37</v>
@@ -4195,10 +4199,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4221,16 +4225,16 @@
         <v>37</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4256,11 +4260,11 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -4278,7 +4282,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -4290,16 +4294,16 @@
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -4307,10 +4311,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4333,16 +4337,16 @@
         <v>37</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4392,7 +4396,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
@@ -4404,16 +4408,16 @@
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>37</v>
@@ -4421,10 +4425,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4447,13 +4451,13 @@
         <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4504,7 +4508,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -4516,13 +4520,13 @@
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>37</v>
@@ -4533,10 +4537,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4550,7 +4554,7 @@
         <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>37</v>
@@ -4559,16 +4563,16 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4618,7 +4622,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -4630,13 +4634,13 @@
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>37</v>
@@ -4647,10 +4651,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4661,7 +4665,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -4673,13 +4677,13 @@
         <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4730,13 +4734,13 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
@@ -4748,7 +4752,7 @@
         <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>37</v>
@@ -4759,14 +4763,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4785,16 +4789,16 @@
         <v>37</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4832,19 +4836,19 @@
         <v>37</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -4856,13 +4860,13 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>37</v>
@@ -4873,14 +4877,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4893,25 +4897,25 @@
         <v>37</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -4960,7 +4964,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -4972,13 +4976,13 @@
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>37</v>
@@ -4989,10 +4993,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5003,7 +5007,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -5012,20 +5016,20 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
@@ -5074,39 +5078,39 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5117,29 +5121,29 @@
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>37</v>
@@ -5188,39 +5192,39 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5240,22 +5244,22 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>37</v>
@@ -5280,13 +5284,13 @@
         <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>37</v>
@@ -5304,7 +5308,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -5316,27 +5320,27 @@
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5347,7 +5351,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -5356,16 +5360,16 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5416,39 +5420,39 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5459,31 +5463,31 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>37</v>
@@ -5532,25 +5536,25 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>37</v>
@@ -5561,10 +5565,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5575,7 +5579,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>37</v>
@@ -5584,19 +5588,19 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5622,13 +5626,13 @@
         <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>37</v>
@@ -5646,39 +5650,39 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5689,7 +5693,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
@@ -5698,22 +5702,22 @@
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>37</v>
@@ -5738,13 +5742,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -5762,39 +5766,39 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5805,7 +5809,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>37</v>
@@ -5814,20 +5818,20 @@
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -5852,13 +5856,13 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>37</v>
@@ -5876,39 +5880,39 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5919,7 +5923,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
@@ -5928,22 +5932,22 @@
         <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>37</v>
@@ -5968,13 +5972,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -5992,39 +5996,39 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6038,22 +6042,22 @@
         <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6104,7 +6108,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6116,7 +6120,7 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>37</v>
@@ -6128,15 +6132,15 @@
         <v>37</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6147,7 +6151,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>37</v>
@@ -6159,13 +6163,13 @@
         <v>37</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6216,13 +6220,13 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>37</v>
@@ -6234,7 +6238,7 @@
         <v>37</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>37</v>
@@ -6245,14 +6249,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6271,16 +6275,16 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6318,19 +6322,19 @@
         <v>37</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -6342,13 +6346,13 @@
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>37</v>
@@ -6359,10 +6363,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6373,7 +6377,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>37</v>
@@ -6382,20 +6386,20 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>37</v>
@@ -6420,13 +6424,13 @@
         <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>37</v>
@@ -6444,19 +6448,19 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>37</v>
@@ -6468,15 +6472,15 @@
         <v>37</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6487,31 +6491,31 @@
         <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>37</v>
@@ -6536,11 +6540,11 @@
         <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>37</v>
@@ -6558,39 +6562,39 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6601,7 +6605,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
@@ -6610,22 +6614,22 @@
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>37</v>
@@ -6674,39 +6678,39 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6717,7 +6721,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -6726,22 +6730,22 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -6790,39 +6794,39 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6833,7 +6837,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -6842,22 +6846,22 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -6906,25 +6910,25 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>37</v>
@@ -6935,10 +6939,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6949,7 +6953,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -6958,20 +6962,20 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7020,25 +7024,25 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>37</v>

--- a/StructureDefinition-us-core-medicationstatement.xlsx
+++ b/StructureDefinition-us-core-medicationstatement.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-15</t>
+    <t>2023-10-11</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -353,7 +353,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) Indicates whether the medication is or is not being consumed or administered</t>
+    <t>Indicates whether the medication is or is not being consumed or administered</t>
   </si>
   <si>
     <t>The FHIR R5 `Medication.adherence` extension to record medication adherence</t>
@@ -418,7 +418,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) plan, proposal or order this is fulfilling</t>
+    <t>plan, proposal or order this is fulfilling</t>
   </si>
   <si>
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
@@ -543,7 +543,7 @@
 Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication)</t>
   </si>
   <si>
-    <t>(USCDI) Medication taken</t>
+    <t>Medication taken</t>
   </si>
   <si>
     <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
@@ -574,7 +574,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) Who is/was taking the medication</t>
+    <t>Who is/was taking the medication</t>
   </si>
   <si>
     <t>The person, animal or group who is/was taking the medication.</t>
@@ -618,7 +618,7 @@
 Period</t>
   </si>
   <si>
-    <t>(USCDI) The date/time or interval when the medication is/was/will be taken</t>
+    <t>The date/time or interval when the medication is/was/will be taken</t>
   </si>
   <si>
     <t>The interval of time during which it is being asserted that the patient is/was/will be taking the medication (or was not taking, when the MedicationStatement.taken element is No).</t>
@@ -643,7 +643,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) When the statement was asserted</t>
+    <t>When the statement was asserted</t>
   </si>
   <si>
     <t>The date when the medication statement was asserted by the information source.</t>
@@ -662,7 +662,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) Person or organization that provided the information about the taking of this medication</t>
+    <t>Person or organization that provided the information about the taking of this medication</t>
   </si>
   <si>
     <t>The person or organization that provided the information about the taking of this medication. Note: Use derivedFrom when a MedicationStatement is derived from other resources, e.g. Claim or MedicationRequest.</t>
@@ -696,7 +696,7 @@
     <t>MedicationStatement.reasonCode</t>
   </si>
   <si>
-    <t>(USCDI) Reason for why the medication is being/was taken</t>
+    <t>Reason for why the medication is being/was taken</t>
   </si>
   <si>
     <t>A reason for why the medication is being/was taken.</t>
@@ -724,7 +724,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) Condition or observation that supports why the medication is being/was taken</t>
+    <t>Condition or observation that supports why the medication is being/was taken</t>
   </si>
   <si>
     <t>Condition or observation that supports why the medication is being/was taken.</t>
@@ -765,7 +765,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) How the medication should be taken</t>
+    <t>How the medication should be taken</t>
   </si>
   <si>
     <t>Indicates how the medication is/was or should be taken by the patient.</t>
@@ -856,7 +856,7 @@
     <t>MedicationStatement.dosage.text</t>
   </si>
   <si>
-    <t>(USCDI) Free text dosage instructions e.g. SIG</t>
+    <t>Free text dosage instructions e.g. SIG</t>
   </si>
   <si>
     <t>Free text dosage instructions e.g. SIG.</t>
@@ -917,7 +917,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) When medication should be administered</t>
+    <t>When medication should be administered</t>
   </si>
   <si>
     <t>When medication should be administered.</t>
@@ -1057,7 +1057,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) Amount of medication administered</t>
+    <t>Amount of medication administered</t>
   </si>
   <si>
     <t>The amount of medication administered.</t>
@@ -1106,7 +1106,7 @@
 Range</t>
   </si>
   <si>
-    <t>(USCDI) Amount of medication per dose</t>
+    <t>Amount of medication per dose</t>
   </si>
   <si>
     <t>Amount of medication per dose.</t>

--- a/StructureDefinition-us-core-medicationstatement.xlsx
+++ b/StructureDefinition-us-core-medicationstatement.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11</t>
+    <t>2023-10-12</t>
   </si>
   <si>
     <t>Publisher</t>
